--- a/Discharge/Discharge_2019/Discharge_July16.xlsx
+++ b/Discharge/Discharge_2019/Discharge_July16.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/kriddie_ad_unc_edu/Documents/Ecuador/Ecuador/Analysis/Discharge/Discharge_ReCalibrated/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/LongTermData_CayambeCoca/Discharge/Discharge_2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_97E636480BFC120DD136E12052D51AFE7EA83D69" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CBD9DCFF-31AB-4E87-AF35-6055BFAF9A5F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF70B05F-BB64-5640-875C-BF0AAFBD2740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10670" yWindow="840" windowWidth="7680" windowHeight="8950" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="1380" windowWidth="16920" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stn3" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="11">
   <si>
     <t>Station 3</t>
   </si>
@@ -65,13 +65,24 @@
   <si>
     <t>Qtotal</t>
   </si>
+  <si>
+    <t>new depth</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -99,8 +110,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,15 +393,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -397,7 +409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -417,7 +429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.55000000000000004</v>
       </c>
@@ -436,7 +448,7 @@
         <v>0.22155000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.6</v>
       </c>
@@ -455,7 +467,7 @@
         <v>2.5349999999999987E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.65</v>
       </c>
@@ -474,7 +486,7 @@
         <v>1.9200000000000016E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.7</v>
       </c>
@@ -493,7 +505,7 @@
         <v>2.7999999999999966E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.75</v>
       </c>
@@ -512,7 +524,7 @@
         <v>3.1850000000000031E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.8</v>
       </c>
@@ -531,7 +543,7 @@
         <v>3.4999999999999955E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.85</v>
       </c>
@@ -550,7 +562,7 @@
         <v>3.9750000000000035E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -569,7 +581,7 @@
         <v>1.5000000000000013E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.95</v>
       </c>
@@ -588,7 +600,7 @@
         <v>1.2599999999999984E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -607,7 +619,7 @@
         <v>6.7999999999999909E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1.05</v>
       </c>
@@ -626,7 +638,7 @@
         <v>5.5000000000000292E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1.1000000000000001</v>
       </c>
@@ -645,7 +657,7 @@
         <v>2.4999999999999914E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1.1499999999999999</v>
       </c>
@@ -664,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -684,7 +696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.55000000000000004</v>
       </c>
@@ -704,7 +716,7 @@
         <v>1.2672659999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.6</v>
       </c>
@@ -724,7 +736,7 @@
         <v>1.4500199999999996E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0.65</v>
       </c>
@@ -744,7 +756,7 @@
         <v>1.098240000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0.7</v>
       </c>
@@ -764,7 +776,7 @@
         <v>1.6015999999999979E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0.75</v>
       </c>
@@ -784,7 +796,7 @@
         <v>1.821820000000002E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.8</v>
       </c>
@@ -804,7 +816,7 @@
         <v>2.0019999999999977E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.85</v>
       </c>
@@ -824,7 +836,7 @@
         <v>2.2737000000000018E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.9</v>
       </c>
@@ -844,7 +856,7 @@
         <v>8.580000000000008E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0.95</v>
       </c>
@@ -864,7 +876,7 @@
         <v>7.2071999999999924E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -884,7 +896,7 @@
         <v>3.8895999999999945E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1.05</v>
       </c>
@@ -904,7 +916,7 @@
         <v>3.1460000000000168E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1.1000000000000001</v>
       </c>
@@ -924,7 +936,7 @@
         <v>1.4299999999999949E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1.1499999999999999</v>
       </c>
@@ -944,10 +956,295 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <f>A31-A19</f>
         <v>0.59999999999999987</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <f>C19*2.54</f>
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <f>A37</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F37">
+        <f>SUM(E37:E49)</f>
+        <v>3.2188556399999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0.6</v>
+      </c>
+      <c r="B38">
+        <v>0.14872000000000002</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38:C49" si="5">C20*2.54</f>
+        <v>0.33019999999999999</v>
+      </c>
+      <c r="D38">
+        <f>(A38+(A39-A38)/2)</f>
+        <v>0.625</v>
+      </c>
+      <c r="E38">
+        <f>(D38-D37)*(B38)*C38</f>
+        <v>3.6830507999999983E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0.65</v>
+      </c>
+      <c r="B39">
+        <v>0.18304000000000001</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="5"/>
+        <v>0.30480000000000002</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39:D49" si="6">(A39+(A40-A39)/2)</f>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39:E49" si="7">(D39-D38)*(B39)*C39</f>
+        <v>2.789529600000003E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0.7</v>
+      </c>
+      <c r="B40">
+        <v>0.2288</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="5"/>
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="6"/>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="7"/>
+        <v>4.0680639999999954E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0.75</v>
+      </c>
+      <c r="B41">
+        <v>0.28028000000000003</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="5"/>
+        <v>0.33019999999999999</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="6"/>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="7"/>
+        <v>4.6274228000000046E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0.8</v>
+      </c>
+      <c r="B42">
+        <v>0.28600000000000003</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="5"/>
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="6"/>
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="7"/>
+        <v>5.0850799999999944E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0.85</v>
+      </c>
+      <c r="B43">
+        <v>0.30315999999999999</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="5"/>
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="6"/>
+        <v>0.875</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="7"/>
+        <v>5.7751980000000048E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0.9</v>
+      </c>
+      <c r="B44">
+        <v>0.28600000000000003</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="5"/>
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="6"/>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="7"/>
+        <v>2.1793200000000024E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0.95</v>
+      </c>
+      <c r="B45">
+        <v>0.20592000000000002</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="5"/>
+        <v>0.17780000000000001</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="6"/>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="7"/>
+        <v>1.8306287999999978E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>9.7239999999999993E-2</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="5"/>
+        <v>0.20320000000000002</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="6"/>
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="7"/>
+        <v>9.8795839999999877E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1.05</v>
+      </c>
+      <c r="B47">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="5"/>
+        <v>0.27939999999999998</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="6"/>
+        <v>1.0750000000000002</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="7"/>
+        <v>7.9908400000000426E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B48">
+        <v>2.86E-2</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="5"/>
+        <v>0.254</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="6"/>
+        <v>1.125</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="7"/>
+        <v>3.6321999999999868E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="6"/>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -957,15 +1254,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -973,7 +1270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -993,7 +1290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.7</v>
       </c>
@@ -1012,7 +1309,7 @@
         <v>0.20670036999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.75</v>
       </c>
@@ -1031,7 +1328,7 @@
         <v>1.2075000000000011E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.8</v>
       </c>
@@ -1050,7 +1347,7 @@
         <v>2.0999999999999974E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.85</v>
       </c>
@@ -1069,7 +1366,7 @@
         <v>2.7900000000000025E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.9</v>
       </c>
@@ -1088,7 +1385,7 @@
         <v>3.3000000000000029E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.95</v>
       </c>
@@ -1107,7 +1404,7 @@
         <v>1.4399999999999982E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1126,7 +1423,7 @@
         <v>3.3999999999999954E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1.05</v>
       </c>
@@ -1145,7 +1442,7 @@
         <v>2.800000000000015E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1.1000000000000001</v>
       </c>
@@ -1164,7 +1461,7 @@
         <v>2.4999999999999911E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1.1499999999999999</v>
       </c>
@@ -1183,7 +1480,7 @@
         <v>5.9499999999999796E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -1202,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1222,7 +1519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.7</v>
       </c>
@@ -1239,10 +1536,10 @@
       </c>
       <c r="F17">
         <f>SUM(E17:E35)</f>
-        <v>1.151579E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1.3270142600000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.75</v>
       </c>
@@ -1262,7 +1559,7 @@
         <v>6.9069000000000064E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.8</v>
       </c>
@@ -1282,7 +1579,7 @@
         <v>1.2011999999999986E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.85</v>
       </c>
@@ -1302,7 +1599,7 @@
         <v>1.5958800000000013E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0.9</v>
       </c>
@@ -1322,7 +1619,7 @@
         <v>1.8876000000000014E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0.95</v>
       </c>
@@ -1342,7 +1639,7 @@
         <v>8.2367999999999894E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1362,7 +1659,7 @@
         <v>1.9447999999999974E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1.05</v>
       </c>
@@ -1382,7 +1679,7 @@
         <v>1.6016000000000086E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1.1000000000000001</v>
       </c>
@@ -1402,7 +1699,7 @@
         <v>1.4299999999999953E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1.1499999999999999</v>
       </c>
@@ -1422,7 +1719,7 @@
         <v>3.4033999999999882E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1.2</v>
       </c>
@@ -1442,7 +1739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <f>(A27-A17)/2+A17</f>
         <v>0.95</v>
@@ -1454,6 +1751,251 @@
       <c r="C29">
         <f>C22</f>
         <v>0.09</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0.7</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <f>C17*2.54</f>
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <f>A34</f>
+        <v>0.7</v>
+      </c>
+      <c r="F34">
+        <f>SUM(E34:E52)</f>
+        <v>2.9250106600000006E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0.75</v>
+      </c>
+      <c r="B35">
+        <v>0.13155999999999998</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:C44" si="5">C18*2.54</f>
+        <v>0.17780000000000001</v>
+      </c>
+      <c r="D35">
+        <f>(A35+(A36-A35)/2)</f>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E35">
+        <f>(D35-D34)*(B35)*C35</f>
+        <v>1.7543526000000015E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0.8</v>
+      </c>
+      <c r="B36">
+        <v>0.34320000000000001</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="5"/>
+        <v>0.17780000000000001</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ref="D36:D44" si="6">(A36+(A37-A36)/2)</f>
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ref="E36:E44" si="7">(D36-D35)*(B36)*C36</f>
+        <v>3.0510479999999963E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0.85</v>
+      </c>
+      <c r="B37">
+        <v>0.35464000000000001</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="5"/>
+        <v>0.2286</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="6"/>
+        <v>0.875</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="7"/>
+        <v>4.0535352000000031E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0.9</v>
+      </c>
+      <c r="B38">
+        <v>0.37751999999999997</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="5"/>
+        <v>0.254</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="6"/>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="7"/>
+        <v>4.7945040000000041E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0.95</v>
+      </c>
+      <c r="B39">
+        <v>0.18304000000000001</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="5"/>
+        <v>0.2286</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="6"/>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="7"/>
+        <v>2.0921471999999974E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>0.19447999999999999</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="5"/>
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="6"/>
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="7"/>
+        <v>4.9397919999999932E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1.05</v>
+      </c>
+      <c r="B41">
+        <v>0.16016</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="5"/>
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="6"/>
+        <v>1.0750000000000002</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="7"/>
+        <v>4.0680640000000223E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B42">
+        <v>0.14300000000000002</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="5"/>
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="6"/>
+        <v>1.125</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="7"/>
+        <v>3.6321999999999878E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="B43">
+        <v>9.7239999999999993E-2</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="5"/>
+        <v>0.17780000000000001</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="6"/>
+        <v>1.1749999999999998</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="7"/>
+        <v>8.6446359999999695E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1.2</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="6"/>
+        <v>0.6</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1462,6 +2004,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BA27023E844F434EBFC790358068B4CE" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="962119b939e32e01d6fe84b679c182bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="18299441-e87c-4909-bb3a-a1a391a25027" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="185fd3cf949c73c8f7d83010548f2ed9" ns3:_="">
     <xsd:import namespace="18299441-e87c-4909-bb3a-a1a391a25027"/>
@@ -1645,15 +2196,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1661,6 +2203,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43A13607-E739-4B43-ACF1-061D8AB1D0A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1467FCF-E098-4D93-ABB9-4BC4EB169A08}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1674,14 +2224,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43A13607-E739-4B43-ACF1-061D8AB1D0A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
